--- a/static/data/HiQ.xlsx
+++ b/static/data/HiQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50eeeb833f226042/Bifogade filer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="8_{0998040B-931D-405B-9D92-C7A8D84135EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D0DEC3F-CF0D-4E64-962A-3B3C54412BB2}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="8_{0998040B-931D-405B-9D92-C7A8D84135EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86F57BCA-1BCA-46E1-B934-8341AC2A84B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FCEA294A-4ACF-4234-BA0E-D22A7860C650}"/>
+    <workbookView xWindow="2535" yWindow="5940" windowWidth="20055" windowHeight="11385" activeTab="1" xr2:uid="{FCEA294A-4ACF-4234-BA0E-D22A7860C650}"/>
   </bookViews>
   <sheets>
     <sheet name="Mall" sheetId="1" r:id="rId1"/>
@@ -835,7 +835,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -939,6 +939,13 @@
     <font>
       <sz val="11"/>
       <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1142,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1255,6 +1262,8 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1571,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53AE5B6-1EE6-40BC-85FC-30B098F2E93F}">
   <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,8 +1711,8 @@
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="96">
-        <f>(I38+I58)*E18</f>
-        <v>10777270.911698187</v>
+        <f>(I38+I58)*(E18*0+1)</f>
+        <v>2083265.125</v>
       </c>
       <c r="F7" s="96"/>
       <c r="G7" s="24"/>
@@ -1724,7 +1733,7 @@
       <c r="D8" s="21"/>
       <c r="E8" s="96">
         <f>I83</f>
-        <v>27126.25</v>
+        <v>6938320</v>
       </c>
       <c r="F8" s="96"/>
       <c r="G8" s="24"/>
@@ -1745,7 +1754,7 @@
       <c r="D9" s="21"/>
       <c r="E9" s="96">
         <f>I99</f>
-        <v>0</v>
+        <v>7084734</v>
       </c>
       <c r="F9" s="96"/>
       <c r="G9" s="24"/>
@@ -1762,8 +1771,8 @@
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="97">
-        <f>E7*E19</f>
-        <v>5388635.4558490934</v>
+        <f>E7*E19*0</f>
+        <v>0</v>
       </c>
       <c r="F10" s="97"/>
       <c r="G10" s="24"/>
@@ -1781,7 +1790,7 @@
       <c r="D11" s="21"/>
       <c r="E11" s="94">
         <f>L116</f>
-        <v>0</v>
+        <v>1509230.75</v>
       </c>
       <c r="F11" s="94"/>
       <c r="G11" s="24"/>
@@ -1798,8 +1807,8 @@
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="93">
-        <f>E7+E8+E9+E10</f>
-        <v>16193032.617547281</v>
+        <f>E7+E8+E9+E10+E11</f>
+        <v>17615549.875</v>
       </c>
       <c r="F12" s="93"/>
       <c r="G12" s="24"/>
@@ -1868,9 +1877,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="29">
-        <v>100</v>
-      </c>
+      <c r="D17" s="29"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="72" t="s">
@@ -1888,11 +1895,11 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="29" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E18" s="91">
         <f>VLOOKUP(D18,Data!CC5:CD13,2,0)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1999,7 +2006,7 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="29" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="63" t="s">
@@ -2007,7 +2014,7 @@
       </c>
       <c r="G25" s="79">
         <f>VLOOKUP(D25,Data!$K$5:$N$30,4,0)</f>
-        <v>1.1470270270270271</v>
+        <v>1.1164864864864865</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -2024,7 +2031,7 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="63" t="s">
@@ -2032,7 +2039,7 @@
       </c>
       <c r="G26" s="79">
         <f>VLOOKUP(D26,Data!T5:V10,3,0)</f>
-        <v>1.1182142857142858</v>
+        <v>1.1232142857142857</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -2049,17 +2056,17 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="29" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E27" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F27" s="63" t="s">
         <v>151</v>
       </c>
       <c r="G27" s="79">
         <f>VLOOKUP(D27,Data!X5:AD10,HLOOKUP(E27,Data!AB4:AD11,8,0),0)</f>
-        <v>1.1434375000000001</v>
+        <v>1.1225000000000001</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -2077,7 +2084,7 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E28" s="86" t="s">
         <v>259</v>
@@ -2087,7 +2094,7 @@
       </c>
       <c r="G28" s="79">
         <f>VLOOKUP(D28,Data!AF5:AJ15,IF(E28="Brant",5,4),0)</f>
-        <v>1.1120000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -2095,7 +2102,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="11">
         <f>(D17-(D44*E44))*BPI*G29</f>
-        <v>5243613.2566083148</v>
+        <v>0</v>
       </c>
       <c r="N28" t="s">
         <v>177</v>
@@ -2112,7 +2119,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="68">
         <f>G25*G26*G27*G28</f>
-        <v>1.6308570893735526</v>
+        <v>1.5625193986607147</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -2144,9 +2151,7 @@
         <v>149</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="29">
-        <v>3</v>
-      </c>
+      <c r="D31" s="29"/>
       <c r="E31" s="25" t="s">
         <v>150</v>
       </c>
@@ -2163,7 +2168,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="11">
         <f>D31*G31</f>
-        <v>15495.750000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2190,7 +2195,9 @@
       <c r="D33" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="29"/>
+      <c r="E33" s="29">
+        <v>13</v>
+      </c>
       <c r="F33" s="8" t="s">
         <v>150</v>
       </c>
@@ -2206,7 +2213,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="11">
         <f>E33*G33</f>
-        <v>0</v>
+        <v>235018.875</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2244,9 +2251,7 @@
       <c r="D35" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="29">
-        <v>5</v>
-      </c>
+      <c r="E35" s="29"/>
       <c r="F35" s="8" t="s">
         <v>150</v>
       </c>
@@ -2262,7 +2267,7 @@
       <c r="K35" s="8"/>
       <c r="L35" s="11">
         <f t="shared" si="0"/>
-        <v>430437.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2303,12 +2308,8 @@
         <v>10</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="89">
-        <v>4000</v>
-      </c>
-      <c r="E38" s="29">
-        <v>9</v>
-      </c>
+      <c r="D38" s="89"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="42" t="s">
@@ -2316,13 +2317,13 @@
       </c>
       <c r="I38" s="45">
         <f>L39</f>
-        <v>5725546.5066083148</v>
+        <v>235018.875</v>
       </c>
       <c r="J38" s="45"/>
       <c r="K38" s="8"/>
       <c r="L38" s="40">
         <f>D38*E38</f>
-        <v>36000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2339,7 +2340,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="11">
         <f>SUM(L28:L38)</f>
-        <v>5725546.5066083148</v>
+        <v>235018.875</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2406,12 +2407,8 @@
         <v>176</v>
       </c>
       <c r="C44" s="8"/>
-      <c r="D44" s="75">
-        <v>5</v>
-      </c>
-      <c r="E44" s="75">
-        <v>5</v>
-      </c>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
       <c r="H44" s="8"/>
@@ -2426,7 +2423,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="29" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="76" t="s">
@@ -2434,7 +2431,7 @@
       </c>
       <c r="G45" s="79">
         <f>VLOOKUP(D45,Data!$K$5:$N$30,4,0)</f>
-        <v>1.1470270270270271</v>
+        <v>1.1145945945945948</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -2448,7 +2445,7 @@
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="63" t="s">
@@ -2456,7 +2453,7 @@
       </c>
       <c r="G46" s="79">
         <f>VLOOKUP(D46,Data!T5:V10,3,0)</f>
-        <v>1.1232142857142857</v>
+        <v>1.1157142857142859</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -2474,7 +2471,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="69">
         <f>G45*G46</f>
-        <v>1.288357142857143</v>
+        <v>1.2435691119691124</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -2482,7 +2479,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="77">
         <f>D44*E44*G47*Data!E5</f>
-        <v>1380796.767857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2532,28 +2529,28 @@
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E50" s="80"/>
       <c r="F50" s="60">
+        <v>5</v>
+      </c>
+      <c r="G50" s="81">
+        <v>2841</v>
+      </c>
+      <c r="H50" s="78">
+        <v>4</v>
+      </c>
+      <c r="I50" s="29">
+        <v>4</v>
+      </c>
+      <c r="J50" s="29">
         <v>1</v>
-      </c>
-      <c r="G50" s="81">
-        <v>3271</v>
-      </c>
-      <c r="H50" s="78">
-        <v>2</v>
-      </c>
-      <c r="I50" s="29">
-        <v>3</v>
-      </c>
-      <c r="J50" s="29">
-        <v>4</v>
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="11">
         <f>F50*H50*I50*G50*J50</f>
-        <v>78504</v>
+        <v>227280</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -2593,7 +2590,9 @@
       <c r="D53" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="29"/>
+      <c r="E53" s="29">
+        <v>10</v>
+      </c>
       <c r="F53" s="8" t="s">
         <v>150</v>
       </c>
@@ -2609,7 +2608,7 @@
       <c r="K53" s="8"/>
       <c r="L53" s="11">
         <f>E53*G53</f>
-        <v>0</v>
+        <v>180783.75</v>
       </c>
       <c r="U53" t="s">
         <v>67</v>
@@ -2630,7 +2629,9 @@
       <c r="D54" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="29"/>
+      <c r="E54" s="29">
+        <v>10</v>
+      </c>
       <c r="F54" s="8" t="s">
         <v>150</v>
       </c>
@@ -2646,7 +2647,7 @@
       <c r="K54" s="8"/>
       <c r="L54" s="11">
         <f t="shared" ref="L54:L55" si="1">E54*G54</f>
-        <v>0</v>
+        <v>499307.50000000006</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -2656,7 +2657,9 @@
       <c r="D55" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E55" s="29"/>
+      <c r="E55" s="29">
+        <v>10</v>
+      </c>
       <c r="F55" s="8" t="s">
         <v>150</v>
       </c>
@@ -2672,7 +2675,7 @@
       <c r="K55" s="8"/>
       <c r="L55" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>860875</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -2711,8 +2714,12 @@
         <v>15</v>
       </c>
       <c r="C58" s="8"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
+      <c r="D58" s="29">
+        <v>20000</v>
+      </c>
+      <c r="E58" s="29">
+        <v>4</v>
+      </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="42" t="s">
@@ -2720,13 +2727,13 @@
       </c>
       <c r="I58" s="45">
         <f>L59</f>
-        <v>1459300.767857143</v>
+        <v>1848246.25</v>
       </c>
       <c r="J58" s="45"/>
       <c r="K58" s="8"/>
       <c r="L58" s="40">
         <f>D58*E58</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2743,7 +2750,7 @@
       <c r="K59" s="30"/>
       <c r="L59" s="11">
         <f>SUM(L45:L58)</f>
-        <v>1459300.767857143</v>
+        <v>1848246.25</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -2813,10 +2820,10 @@
       </c>
       <c r="C64" s="31"/>
       <c r="D64" s="29">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E64" s="29">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="F64" s="32"/>
       <c r="G64" s="55">
@@ -2829,7 +2836,7 @@
       <c r="K64" s="31"/>
       <c r="L64" s="82">
         <f>IF(G64&lt;&gt;"",Moms*((E64*Data!BE5)+0.25*(E64*Data!BE5)+0.05*(E64*Data!BE5))+G64,"")</f>
-        <v>27126.25</v>
+        <v>188326.25</v>
       </c>
       <c r="N64" t="s">
         <v>147</v>
@@ -2942,7 +2949,9 @@
         <v>164</v>
       </c>
       <c r="C70" s="31"/>
-      <c r="D70" s="29"/>
+      <c r="D70" s="29">
+        <v>7</v>
+      </c>
       <c r="E70" s="31"/>
       <c r="F70" s="55">
         <f>Data!BJ5</f>
@@ -2955,7 +2964,7 @@
       <c r="K70" s="31"/>
       <c r="L70" s="11">
         <f>D70*F70</f>
-        <v>0</v>
+        <v>301306.25</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -2996,7 +3005,9 @@
         <v>17</v>
       </c>
       <c r="C73" s="31"/>
-      <c r="D73" s="29"/>
+      <c r="D73" s="29">
+        <v>2</v>
+      </c>
       <c r="E73" s="31"/>
       <c r="F73" s="56">
         <f>Data!BM5</f>
@@ -3009,7 +3020,7 @@
       <c r="K73" s="31"/>
       <c r="L73" s="11">
         <f>D73*F73</f>
-        <v>0</v>
+        <v>86087.5</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -3053,7 +3064,9 @@
       <c r="D76" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E76" s="29"/>
+      <c r="E76" s="29">
+        <v>200</v>
+      </c>
       <c r="F76" s="54">
         <v>3000</v>
       </c>
@@ -3064,7 +3077,7 @@
       <c r="K76" s="31"/>
       <c r="L76" s="11">
         <f>E76*F76</f>
-        <v>0</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -3074,7 +3087,9 @@
       <c r="D77" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="E77" s="29"/>
+      <c r="E77" s="29">
+        <v>50</v>
+      </c>
       <c r="F77" s="54">
         <v>4800</v>
       </c>
@@ -3085,7 +3100,7 @@
       <c r="K77" s="31"/>
       <c r="L77" s="11">
         <f t="shared" ref="L77:L80" si="2">E77*F77</f>
-        <v>0</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -3110,7 +3125,9 @@
       <c r="D79" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E79" s="29"/>
+      <c r="E79" s="29">
+        <v>59</v>
+      </c>
       <c r="F79" s="54">
         <v>1400</v>
       </c>
@@ -3121,7 +3138,7 @@
       <c r="K79" s="31"/>
       <c r="L79" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>82600</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -3131,7 +3148,9 @@
       <c r="D80" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="E80" s="29"/>
+      <c r="E80" s="29">
+        <v>5</v>
+      </c>
       <c r="F80" s="54">
         <v>3000</v>
       </c>
@@ -3142,7 +3161,7 @@
       <c r="K80" s="31"/>
       <c r="L80" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -3169,7 +3188,9 @@
       <c r="D82" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="E82" s="29"/>
+      <c r="E82" s="29">
+        <v>10</v>
+      </c>
       <c r="F82" s="54">
         <f>Data!BO6</f>
         <v>190000</v>
@@ -3183,7 +3204,7 @@
       <c r="K82" s="31"/>
       <c r="L82" s="11">
         <f>E82*F82</f>
-        <v>0</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3193,7 +3214,9 @@
       <c r="D83" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="E83" s="29"/>
+      <c r="E83" s="29">
+        <v>15</v>
+      </c>
       <c r="F83" s="54">
         <f>Data!BO5</f>
         <v>235000</v>
@@ -3204,13 +3227,13 @@
       </c>
       <c r="I83" s="44">
         <f>L84</f>
-        <v>27126.25</v>
+        <v>6938320</v>
       </c>
       <c r="J83" s="44"/>
       <c r="K83" s="31"/>
       <c r="L83" s="40">
         <f>E83*F83</f>
-        <v>0</v>
+        <v>3525000</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3227,7 +3250,7 @@
       <c r="K84" s="33"/>
       <c r="L84" s="11">
         <f>SUM(L64:L83)</f>
-        <v>27126.25</v>
+        <v>6938320</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -3294,7 +3317,9 @@
         <v>21</v>
       </c>
       <c r="C89" s="31"/>
-      <c r="D89" s="60"/>
+      <c r="D89" s="60">
+        <v>3</v>
+      </c>
       <c r="E89" s="90">
         <f>Data!BY5</f>
         <v>172175</v>
@@ -3307,7 +3332,7 @@
       <c r="K89" s="31"/>
       <c r="L89" s="11">
         <f>D89*E89</f>
-        <v>0</v>
+        <v>516525</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -3316,7 +3341,9 @@
         <v>22</v>
       </c>
       <c r="C90" s="31"/>
-      <c r="D90" s="60"/>
+      <c r="D90" s="60">
+        <v>5</v>
+      </c>
       <c r="E90" s="90">
         <f>Data!BY6</f>
         <v>430437.5</v>
@@ -3329,7 +3356,7 @@
       <c r="K90" s="31"/>
       <c r="L90" s="11">
         <f>D90*E90</f>
-        <v>0</v>
+        <v>2152187.5</v>
       </c>
       <c r="N90" s="11"/>
     </row>
@@ -3339,7 +3366,9 @@
         <v>23</v>
       </c>
       <c r="C91" s="31"/>
-      <c r="D91" s="60"/>
+      <c r="D91" s="60">
+        <v>1</v>
+      </c>
       <c r="E91" s="90">
         <f>Data!BY7</f>
         <v>1205225.0000000002</v>
@@ -3352,7 +3381,7 @@
       <c r="K91" s="31"/>
       <c r="L91" s="11">
         <f t="shared" ref="L91:L94" si="3">D91*E91</f>
-        <v>0</v>
+        <v>1205225.0000000002</v>
       </c>
       <c r="N91" s="11"/>
     </row>
@@ -3362,7 +3391,9 @@
         <v>24</v>
       </c>
       <c r="C92" s="31"/>
-      <c r="D92" s="60"/>
+      <c r="D92" s="60">
+        <v>5</v>
+      </c>
       <c r="E92" s="90">
         <f>Data!BY8</f>
         <v>258262.5</v>
@@ -3375,7 +3406,7 @@
       <c r="K92" s="31"/>
       <c r="L92" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1291312.5</v>
       </c>
       <c r="N92" s="11"/>
     </row>
@@ -3385,7 +3416,9 @@
         <v>25</v>
       </c>
       <c r="C93" s="31"/>
-      <c r="D93" s="60"/>
+      <c r="D93" s="60">
+        <v>1</v>
+      </c>
       <c r="E93" s="90">
         <f>Data!BY9</f>
         <v>1033050</v>
@@ -3400,7 +3433,7 @@
       <c r="K93" s="31"/>
       <c r="L93" s="11">
         <f>D93*E93</f>
-        <v>0</v>
+        <v>1033050</v>
       </c>
       <c r="N93" s="11"/>
     </row>
@@ -3410,7 +3443,9 @@
         <v>26</v>
       </c>
       <c r="C94" s="31"/>
-      <c r="D94" s="60"/>
+      <c r="D94" s="60">
+        <v>6</v>
+      </c>
       <c r="E94" s="90">
         <f>Data!BY10</f>
         <v>137740</v>
@@ -3423,7 +3458,7 @@
       <c r="K94" s="31"/>
       <c r="L94" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>826440</v>
       </c>
       <c r="N94" s="11"/>
     </row>
@@ -3466,8 +3501,12 @@
       <c r="A97" s="31"/>
       <c r="B97" s="29"/>
       <c r="C97" s="31"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
+      <c r="D97" s="29">
+        <v>9999</v>
+      </c>
+      <c r="E97" s="29">
+        <v>6</v>
+      </c>
       <c r="F97" s="31"/>
       <c r="G97" s="31"/>
       <c r="H97" s="31"/>
@@ -3476,7 +3515,7 @@
       <c r="K97" s="31"/>
       <c r="L97" s="11">
         <f>D97*E97</f>
-        <v>0</v>
+        <v>59994</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -3509,7 +3548,7 @@
       </c>
       <c r="I99" s="44">
         <f>L100+G94</f>
-        <v>0</v>
+        <v>7084734</v>
       </c>
       <c r="J99" s="44"/>
       <c r="K99" s="31"/>
@@ -3532,7 +3571,7 @@
       <c r="K100" s="33"/>
       <c r="L100" s="11">
         <f>SUM(L89:L99)</f>
-        <v>0</v>
+        <v>7084734</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -3611,7 +3650,9 @@
       <c r="D105" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E105" s="29"/>
+      <c r="E105" s="29">
+        <v>12</v>
+      </c>
       <c r="F105" s="47"/>
       <c r="G105" s="53">
         <f>Data!CB6</f>
@@ -3623,7 +3664,7 @@
       <c r="K105" s="47"/>
       <c r="L105" s="11">
         <f>E105*G105</f>
-        <v>0</v>
+        <v>1074372</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -3688,20 +3729,24 @@
         <v>16</v>
       </c>
       <c r="C109" s="47"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
+      <c r="D109" s="29">
+        <v>22</v>
+      </c>
+      <c r="E109" s="29">
+        <v>123</v>
+      </c>
       <c r="F109" s="49"/>
-      <c r="G109" s="58" t="str">
+      <c r="G109" s="58">
         <f>IF(AND(E109&gt;0),Data!BK5,"")</f>
-        <v/>
+        <v>25826.25</v>
       </c>
       <c r="H109" s="47"/>
       <c r="I109" s="47"/>
       <c r="J109" s="47"/>
       <c r="K109" s="47"/>
-      <c r="L109" s="82" t="str">
+      <c r="L109" s="82">
         <f>IF(G109&lt;&gt;"",Moms*((E109*Data!BE5)+0.25*(E109*Data!BE5)+0.05*(E109*Data!BE5))+G109,"")</f>
-        <v/>
+        <v>105776.25</v>
       </c>
       <c r="N109" t="s">
         <v>147</v>
@@ -3711,20 +3756,24 @@
       <c r="A110" s="47"/>
       <c r="B110" s="47"/>
       <c r="C110" s="47"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
+      <c r="D110" s="29">
+        <v>12</v>
+      </c>
+      <c r="E110" s="29">
+        <v>3</v>
+      </c>
       <c r="F110" s="49"/>
-      <c r="G110" s="58" t="str">
+      <c r="G110" s="58">
         <f>IF(AND(E110&gt;0),Data!BK5,"")</f>
-        <v/>
+        <v>25826.25</v>
       </c>
       <c r="H110" s="47"/>
       <c r="I110" s="47"/>
       <c r="J110" s="47"/>
       <c r="K110" s="47"/>
-      <c r="L110" s="82" t="str">
+      <c r="L110" s="82">
         <f>IF(G110&lt;&gt;"",Moms*((E110*Data!BE5)+0.25*(E110*Data!BE5)+0.05*(E110*Data!BE5))+G110,"")</f>
-        <v/>
+        <v>27776.25</v>
       </c>
       <c r="N110" t="s">
         <v>146</v>
@@ -3814,7 +3863,9 @@
         <v>164</v>
       </c>
       <c r="C115" s="47"/>
-      <c r="D115" s="29"/>
+      <c r="D115" s="29">
+        <v>7</v>
+      </c>
       <c r="E115" s="47"/>
       <c r="F115" s="58">
         <f>Data!BJ5</f>
@@ -3826,13 +3877,13 @@
       </c>
       <c r="I115" s="52">
         <f>L116</f>
-        <v>0</v>
+        <v>1509230.75</v>
       </c>
       <c r="J115" s="52"/>
       <c r="K115" s="47"/>
       <c r="L115" s="40">
         <f>D115*F115</f>
-        <v>0</v>
+        <v>301306.25</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -3849,7 +3900,7 @@
       <c r="K116" s="47"/>
       <c r="L116" s="11">
         <f>SUM(L104:L115)</f>
-        <v>0</v>
+        <v>1509230.75</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3944,8 +3995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA15BB0-045F-452E-94B0-E87CF353FA42}">
   <dimension ref="A1:CD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="BI15" sqref="BI15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4003,14 +4054,21 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="D2" s="98"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="I2" s="18"/>
       <c r="L2" s="83">
         <f>MIN(L5:L30)</f>
         <v>185</v>
       </c>
+      <c r="O2" s="18"/>
+      <c r="S2" s="18"/>
       <c r="U2" s="83">
         <f>MIN(U5:U10)</f>
         <v>140</v>
       </c>
+      <c r="W2" s="18"/>
       <c r="Y2" s="83">
         <f t="shared" ref="Y2:AA2" si="0">MIN(Y5:Y10)</f>
         <v>160</v>
@@ -4023,10 +4081,26 @@
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
+      <c r="AE2" s="18"/>
       <c r="AG2" s="83">
         <f>MIN(AG5:AG15)</f>
         <v>100</v>
       </c>
+      <c r="AK2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="99"/>
+      <c r="BN2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BU2" s="98"/>
+      <c r="BV2" s="18"/>
+      <c r="BW2" s="18"/>
+      <c r="BZ2" s="18"/>
     </row>
     <row r="3" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -6151,7 +6225,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB19" xr:uid="{81FA3817-5029-4E85-B009-42D1A0154D3B}">
       <formula1>$Z$18:$Z$21</formula1>
     </dataValidation>
@@ -6162,12 +6236,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6388,15 +6459,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5760F594-140A-4149-87CB-281F2DB2C0D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C17887C4-F280-4802-97C9-20237DE9C8EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6421,10 +6496,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C17887C4-F280-4802-97C9-20237DE9C8EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5760F594-140A-4149-87CB-281F2DB2C0D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>